--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,26 +943,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-75</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -988,26 +988,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-134</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>83</v>
+        <v>-78</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-134</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-75</v>
+        <v>-10</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1213,26 +1213,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F17" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>-10</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1258,17 +1258,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>40</v>
@@ -1303,26 +1303,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>509</v>
+        <v>638</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1348,26 +1348,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>638</v>
+        <v>368</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>192</v>
+        <v>-78</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-78</v>
+        <v>-21</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1438,26 +1438,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-21</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>40</v>
@@ -1518,7 +1518,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1528,26 +1528,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>63</v>
+        <v>-138</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1573,17 +1573,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>368</v>
+        <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>506</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-138</v>
+        <v>-6</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1618,26 +1618,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>506</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1663,26 +1663,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3</v>
+        <v>-78</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1708,17 +1708,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1753,26 +1753,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>371</v>
+        <v>509</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-75</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1798,26 +1798,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>63</v>
+        <v>-78</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1843,17 +1843,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-78</v>
+        <v>-10</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1888,26 +1888,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F32" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
         <v>-10</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1937,22 +1937,22 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-157</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -2023,26 +2023,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-58</v>
+        <v>-157</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2068,26 +2068,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-157</v>
+        <v>-58</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2113,26 +2113,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-58</v>
+        <v>-157</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2158,26 +2158,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-167</v>
+        <v>-58</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2203,26 +2203,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>506</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-88</v>
+        <v>-167</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2248,17 +2248,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>500</v>
+        <v>418</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>506</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-6</v>
+        <v>-88</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>30</v>
@@ -2283,7 +2283,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2293,26 +2293,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>319</v>
+        <v>500</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-247</v>
+        <v>-6</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2338,17 +2338,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-187</v>
+        <v>-247</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>20</v>
@@ -2383,26 +2383,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-148</v>
+        <v>-187</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2428,17 +2428,17 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-130</v>
+        <v>-148</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>30</v>
@@ -2455,6 +2455,51 @@
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-316</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>436</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
